--- a/Report/Figures/Results_EvoRoleMiner.xlsx
+++ b/Report/Figures/Results_EvoRoleMiner.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="22116" windowHeight="9288"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="22116" windowHeight="9288" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DATASET1" sheetId="1" r:id="rId1"/>
     <sheet name="HEALTHCARE" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment2" sheetId="3" r:id="rId3"/>
+    <sheet name="Experiment4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="Experiment6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>Experiment</t>
   </si>
@@ -79,6 +82,75 @@
   </si>
   <si>
     <t>Time (in sec.)</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>4e</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>NSGA-II</t>
+  </si>
+  <si>
+    <t>NSGA-IIR</t>
+  </si>
+  <si>
+    <t>NSGA-IIR with weights</t>
+  </si>
+  <si>
+    <t>Fitness1</t>
+  </si>
+  <si>
+    <t>Fitness2</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Domino</t>
+  </si>
+  <si>
+    <t>Dataset1</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NSGA-II*</t>
+  </si>
+  <si>
+    <t>NSGA-IIR**</t>
   </si>
 </sst>
 </file>
@@ -714,6 +786,2192 @@
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$C$3:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="161374592"/>
+        <c:axId val="161376128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="161374592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161376128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="161376128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="161374592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Statistics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|Gconf|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|Gaccs|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$G$3:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|R|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$H$3:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|UA|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$I$3:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|PA|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$3:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$J$3:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="163275904"/>
+        <c:axId val="174696704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="163275904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174696704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174696704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163275904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$6:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$C$6:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$6:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$D$6:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299.89999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="174264704"/>
+        <c:axId val="174266240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="174264704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174266240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174266240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174264704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Statistics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|Gconf|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Experiment4!$A$6:$B$7,Experiment4!$F$6:$J$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>266.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>149.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>18.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$F$6:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|Gaccs|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Experiment4!$A$6:$B$7,Experiment4!$F$6:$J$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>266.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>149.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>18.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$G$6:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|R|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Experiment4!$A$6:$B$7,Experiment4!$F$6:$J$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>266.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>149.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>18.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|UA|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Experiment4!$A$6:$B$7,Experiment4!$F$6:$J$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>266.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>149.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>18.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|PA|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Experiment4!$A$6:$B$7,Experiment4!$F$6:$J$7)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>266.7</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>150.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4f</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>237.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>149.1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>18.8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>17</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.6</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$J$6:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>266.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="186442496"/>
+        <c:axId val="179385088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186442496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179385088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179385088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186442496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Generation when Solution </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>with no Violation is found (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>γ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gamma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Experiment4!$A$5:$B$6,Experiment4!$E$5:$E$6)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-II*</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR**</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1617.5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>910.43</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4d</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4e</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1617.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>910.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="174206336"/>
+        <c:axId val="174208896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="174206336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174208896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="174208896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174206336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Generation when Solution </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>with no Violation is found (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>γ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gamma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment4!$A$2:$B$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-II</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>NSGA-IIR with weights</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4c</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment4!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="179274112"/>
+        <c:axId val="179275648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="179274112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179275648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179275648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179274112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Generation when Solution </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>with no Violation is found (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400">
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>γ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle5!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle5!$B$1:$C$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>NSGA-II</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NSGA-IIR</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>4a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle5!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="91489792"/>
+        <c:axId val="91491328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91489792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91491328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91491328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91489792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> (in sec.) </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>for one Generation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment6!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Experiment6!$E$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment6!$E$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5600794119999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0758965607000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.649095889999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="179598848"/>
+        <c:axId val="179672576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="179598848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179672576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="179672576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="179598848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1158,16 +3416,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1359,16 +3617,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1437,16 +3695,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1510,16 +3768,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1583,16 +3841,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1656,16 +3914,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1837,16 +4095,16 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2a</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2b</c:v>
+                    <c:v>2c</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2d</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3a</c:v>
+                    <c:v>3c</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3b</c:v>
+                    <c:v>3d</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1916,6 +4174,865 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="159670272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Statistics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|Gconf|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|Gaccs|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment2!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|R|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment2!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|UA|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment2!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>|PA|</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment2!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="178387200"/>
+        <c:axId val="188108800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="178387200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188108800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188108800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178387200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Experiment2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Experiment2!$A$2:$B$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Experiment2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="188192640"/>
+        <c:axId val="188194176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="188192640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188194176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188194176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188192640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATASET1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time(insec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>DATASET1!$A$2:$B$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Fmin_basic</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fmin_edge</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Fmin_basic_INT</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Fmin_edge_INT</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2b</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3b</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5a</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5b</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DATASET1!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="188319232"/>
+        <c:axId val="188320768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="188319232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188320768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="188320768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188319232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2126,6 +5243,376 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1" title="Statistics"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727710</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2" title="Statistics"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4" title="Statistics"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2423,8 +5910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2668,7 +6155,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2707,7 +6194,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2739,7 +6226,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2771,7 +6258,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2803,7 +6290,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2841,12 +6328,921 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0.08</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>3.9</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>13.3</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3.9</v>
+      </c>
+      <c r="G3">
+        <v>11.4</v>
+      </c>
+      <c r="H3">
+        <v>10.8</v>
+      </c>
+      <c r="I3">
+        <v>0.998</v>
+      </c>
+      <c r="J3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3.4</v>
+      </c>
+      <c r="G4">
+        <v>9.9</v>
+      </c>
+      <c r="H4">
+        <v>11.4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>0.06</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3.7</v>
+      </c>
+      <c r="G5">
+        <v>10.8</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>11.1</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>23.4</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>11.2</v>
+      </c>
+      <c r="J3">
+        <v>13.4</v>
+      </c>
+      <c r="K3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>24.7</v>
+      </c>
+      <c r="E4">
+        <v>26.2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1617.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>218.6</v>
+      </c>
+      <c r="J5">
+        <v>265.8</v>
+      </c>
+      <c r="K5">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>910.43</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18.8</v>
+      </c>
+      <c r="I6">
+        <v>237.5</v>
+      </c>
+      <c r="J6">
+        <v>266.7</v>
+      </c>
+      <c r="K6">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>14.1</v>
+      </c>
+      <c r="D7">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G7">
+        <v>5.6</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>149.1</v>
+      </c>
+      <c r="J7">
+        <v>150.1</v>
+      </c>
+      <c r="K7">
+        <v>3083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>23.4</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>757.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>214.36716999999999</v>
+      </c>
+      <c r="C2">
+        <v>411.01790240000003</v>
+      </c>
+      <c r="D2">
+        <v>1858.416872</v>
+      </c>
+      <c r="E2">
+        <f>B2/100</f>
+        <v>2.1436717000000001</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:G2" si="0">C2/100</f>
+        <v>4.1101790240000007</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>18.584168720000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>211.68999500000001</v>
+      </c>
+      <c r="C3">
+        <v>357.36378309999998</v>
+      </c>
+      <c r="D3">
+        <v>1809.37022</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="1">B3/100</f>
+        <v>2.1168999500000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="2">C3/100</f>
+        <v>3.5736378309999997</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="3">D3/100</f>
+        <v>18.093702199999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>210.841971</v>
+      </c>
+      <c r="C4">
+        <v>448.10480200000001</v>
+      </c>
+      <c r="D4">
+        <v>1847.2272149999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.1084197100000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>4.4810480200000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>18.472272149999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>133.880021</v>
+      </c>
+      <c r="C5">
+        <v>393.87963989999997</v>
+      </c>
+      <c r="D5">
+        <v>1882.116702</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.33880021</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>3.9387963989999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>18.821167020000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>131.295422</v>
+      </c>
+      <c r="C6">
+        <v>345.58089009999998</v>
+      </c>
+      <c r="D6">
+        <v>1831.125286</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.3129542199999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>3.4558089009999997</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>18.31125286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>127.74524099999999</v>
+      </c>
+      <c r="C7">
+        <v>380.73346129999999</v>
+      </c>
+      <c r="D7">
+        <v>1816.6892439999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.27745241</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>3.8073346130000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>18.166892439999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>132.98522399999999</v>
+      </c>
+      <c r="C8">
+        <v>485.17587190000006</v>
+      </c>
+      <c r="D8">
+        <v>1804.9911689999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.3298522399999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.8517587190000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>18.049911689999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>130.85432499999999</v>
+      </c>
+      <c r="C9">
+        <v>387.49725739999997</v>
+      </c>
+      <c r="D9">
+        <v>1863.4655090000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.3085432499999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>3.8749725739999996</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>18.634655090000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>134.178506</v>
+      </c>
+      <c r="C10">
+        <v>402.38688830000001</v>
+      </c>
+      <c r="D10">
+        <v>1853.2044370000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.3417850600000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>4.0238688830000005</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>18.532044370000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>132.24153699999999</v>
+      </c>
+      <c r="C11">
+        <v>464.15606429999997</v>
+      </c>
+      <c r="D11">
+        <v>2082.4892359999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.3224153699999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>4.641560643</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>20.82489236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>156.0079412</v>
+      </c>
+      <c r="C12">
+        <v>407.58965606999993</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)/10</f>
+        <v>1864.9095889999996</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="4">SUM(E2:E11)/10</f>
+        <v>1.5600794119999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>4.0758965607000004</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>18.649095889999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>